--- a/Caribe/App/Resource/prop/propUnit.xlsx
+++ b/Caribe/App/Resource/prop/propUnit.xlsx
@@ -14,8 +14,252 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>성정우</author>
+  </authors>
+  <commentList>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>spr</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전체적</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기조정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이펙트등을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유닛에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그릴때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유닛에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>크기를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조절하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스케일값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="105">
   <si>
     <t>// idProp</t>
   </si>
@@ -344,6 +588,18 @@
   </si>
   <si>
     <t>2player HSL컬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spr크기조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛크기인자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +646,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -420,7 +704,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +721,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,13 +1030,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H14" sqref="H14"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -775,23 +1062,25 @@
     <col min="19" max="19" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="22" max="22" width="9" style="2"/>
+    <col min="23" max="23" width="9" style="4"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,17 +1147,20 @@
       <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -933,10 +1225,10 @@
         <v>38</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>100</v>
@@ -944,8 +1236,11 @@
       <c r="Y3" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="Z3" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1013,8 +1308,8 @@
         <f>1.3*1.5</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
+      <c r="W4" s="4">
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
@@ -1022,8 +1317,11 @@
       <c r="Y4" s="2">
         <v>0</v>
       </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1091,8 +1389,8 @@
         <f>1.3*1.5</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
+      <c r="W5" s="4">
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -1100,8 +1398,11 @@
       <c r="Y5" s="2">
         <v>0</v>
       </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1169,8 +1470,8 @@
         <f>1.95*1.25</f>
         <v>2.4375</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
+      <c r="W6" s="4">
+        <v>1.5</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1178,8 +1479,11 @@
       <c r="Y6" s="2">
         <v>0</v>
       </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1247,8 +1551,8 @@
       <c r="V7" s="2">
         <v>1.6</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
+      <c r="W7" s="4">
+        <v>1.5</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -1256,8 +1560,11 @@
       <c r="Y7" s="2">
         <v>0</v>
       </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1325,8 +1632,8 @@
         <f>3*0.9</f>
         <v>2.7</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
+      <c r="W8" s="4">
+        <v>1.5</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -1334,8 +1641,11 @@
       <c r="Y8" s="2">
         <v>0</v>
       </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1404,8 +1714,8 @@
         <f>2*0.8</f>
         <v>1.6</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
+      <c r="W9" s="4">
+        <v>1.5</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -1413,8 +1723,11 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -1481,8 +1794,8 @@
       <c r="V10" s="2">
         <v>2.2749999999999999</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
+      <c r="W10" s="4">
+        <v>2</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -1490,8 +1803,11 @@
       <c r="Y10" s="2">
         <v>0</v>
       </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -1559,8 +1875,8 @@
       <c r="V11" s="2">
         <v>2.2749999999999999</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
+      <c r="W11" s="4">
+        <v>2</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -1568,8 +1884,11 @@
       <c r="Y11" s="2">
         <v>0</v>
       </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1637,23 +1956,27 @@
       <c r="V12" s="2">
         <v>1.98</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
+      <c r="W12" s="4">
+        <v>2</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
       </c>
       <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
